--- a/biology/Botanique/Hornstedtia/Hornstedtia.xlsx
+++ b/biology/Botanique/Hornstedtia/Hornstedtia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hornstedtia est un genre de plantes de la famille des Zingiberaceae.
-Ce genre fut mentionné pour la première fois en 1791 par Anders Jahan Retzius, botaniste suédois, dans son ouvrage Observationes botanicae (Tome 6 page 18)[1], qui dédia son nom à Claës Fredric Hornstedt (Hornst.) (1758-1809), naturaliste suédois.
+Ce genre fut mentionné pour la première fois en 1791 par Anders Jahan Retzius, botaniste suédois, dans son ouvrage Observationes botanicae (Tome 6 page 18), qui dédia son nom à Claës Fredric Hornstedt (Hornst.) (1758-1809), naturaliste suédois.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010) :
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011) :
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 juil. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 juil. 2010) :
 Hornstedtia conica
 Hornstedtia fenzlii
 Hornstedtia gracilis
